--- a/settings/location.xlsx
+++ b/settings/location.xlsx
@@ -32,49 +32,49 @@
     <t>電腦數</t>
   </si>
   <si>
-    <t>市立大智國小</t>
-  </si>
-  <si>
-    <t>市立大同國小</t>
-  </si>
-  <si>
-    <t>市立軍功國小</t>
-  </si>
-  <si>
-    <t>市立西屯國小</t>
-  </si>
-  <si>
-    <t>市立惠文國小</t>
-  </si>
-  <si>
-    <t>市立豐南國中</t>
-  </si>
-  <si>
-    <t>市立豐田國小</t>
-  </si>
-  <si>
-    <t>市立東寶國小</t>
-  </si>
-  <si>
-    <t>市立清水國小</t>
-  </si>
-  <si>
-    <t>市立華龍國小</t>
-  </si>
-  <si>
-    <t>市立石岡國小</t>
-  </si>
-  <si>
-    <t>市立光德國中</t>
-  </si>
-  <si>
-    <t>市立大元國小</t>
-  </si>
-  <si>
-    <t>市立北區太平國小</t>
-  </si>
-  <si>
-    <t>市立鹿峰國小</t>
+    <t>東區大智國小</t>
+  </si>
+  <si>
+    <t>西區大同國小</t>
+  </si>
+  <si>
+    <t>北屯區軍功國小</t>
+  </si>
+  <si>
+    <t>西屯區西屯國小</t>
+  </si>
+  <si>
+    <t>南屯區惠文國小</t>
+  </si>
+  <si>
+    <t>豐原區豐南國中</t>
+  </si>
+  <si>
+    <t>豐原區豐田國小</t>
+  </si>
+  <si>
+    <t>潭子區東寶國小</t>
+  </si>
+  <si>
+    <t>清水區清水國小</t>
+  </si>
+  <si>
+    <t>大甲區華龍國小</t>
+  </si>
+  <si>
+    <t>石岡區石岡國小</t>
+  </si>
+  <si>
+    <t>烏日區光德國中</t>
+  </si>
+  <si>
+    <t>大里區大元國小</t>
+  </si>
+  <si>
+    <t>北區太平國小</t>
+  </si>
+  <si>
+    <t>沙鹿區鹿峰國小</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/settings/location.xlsx
+++ b/settings/location.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>場地名</t>
   </si>
@@ -75,13 +75,17 @@
   </si>
   <si>
     <t>沙鹿區鹿峰國小</t>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,6 +96,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -120,8 +132,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -543,6 +558,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/settings/location.xlsx
+++ b/settings/location.xlsx
@@ -563,7 +563,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/settings/location.xlsx
+++ b/settings/location.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\settings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,21 +19,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>場地名</t>
-  </si>
-  <si>
-    <t>電腦數</t>
-  </si>
-  <si>
-    <t>東區大智國小</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>安排競賽選手數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生用電腦數量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>西區大同國小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>北屯區軍功國小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>西屯區西屯國小</t>
@@ -47,78 +43,93 @@
     <t>南屯區惠文國小</t>
   </si>
   <si>
+    <t>潭子區東寶國小</t>
+  </si>
+  <si>
+    <t>清水區清水國小</t>
+  </si>
+  <si>
+    <t>大甲區華龍國小</t>
+  </si>
+  <si>
+    <t>沙鹿區鹿峰國小</t>
+  </si>
+  <si>
+    <t>石岡區石岡國小</t>
+  </si>
+  <si>
+    <t>大里區大元國小</t>
+  </si>
+  <si>
+    <t>太平區太平國小</t>
+  </si>
+  <si>
+    <t>后里區內埔國小</t>
+  </si>
+  <si>
     <t>豐原區豐南國中</t>
   </si>
   <si>
-    <t>豐原區豐田國小</t>
-  </si>
-  <si>
-    <t>潭子區東寶國小</t>
-  </si>
-  <si>
-    <t>清水區清水國小</t>
-  </si>
-  <si>
-    <t>大甲區華龍國小</t>
-  </si>
-  <si>
-    <t>石岡區石岡國小</t>
-  </si>
-  <si>
     <t>烏日區光德國中</t>
   </si>
   <si>
-    <t>大里區大元國小</t>
-  </si>
-  <si>
-    <t>北區太平國小</t>
-  </si>
-  <si>
-    <t>沙鹿區鹿峰國小</t>
-  </si>
-  <si>
-    <t>未知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>烏日區溪南國中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,18 +137,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,155 +498,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.8984375" customWidth="1"/>
+    <col min="2" max="2" width="29.296875" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="10" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="C14" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="15" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/settings/location.xlsx
+++ b/settings/location.xlsx
@@ -25,10 +25,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>學生用電腦數量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>西區大同國小</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -74,13 +70,25 @@
   </si>
   <si>
     <t>烏日區溪南國中</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>未知</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +122,12 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -129,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -197,11 +211,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -217,6 +253,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -514,175 +556,136 @@
     <row r="1" spans="1:3" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>30</v>
-      </c>
-      <c r="C2" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3">
         <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>

--- a/settings/location.xlsx
+++ b/settings/location.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>安排競賽選手數</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -70,25 +70,13 @@
   </si>
   <si>
     <t>烏日區溪南國中</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>未知</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +110,6 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -143,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -211,33 +193,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,12 +213,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -680,14 +634,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>9999</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
